--- a/biology/Zoologie/Heliobolus_spekii/Heliobolus_spekii.xlsx
+++ b/biology/Zoologie/Heliobolus_spekii/Heliobolus_spekii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Heliobolus spekii est une espèce de sauriens de la famille des Lacertidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Heliobolus spekii est une espèce de sauriens de la famille des Lacertidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Tanzanie, au Kenya, en Somalie, en Éthiopie, au Soudan du Sud et au Soudan[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Tanzanie, au Kenya, en Somalie, en Éthiopie, au Soudan du Sud et au Soudan.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'holotype de Heliobolus spekii[2] mesure 53 mm, queue non comprise. Cette espèce a la face dorsale brunâtre et présente trois lignes longitudinales blanches au milieu de son dos et parfois une autre irrégulière sur ses flancs.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'holotype de Heliobolus spekii mesure 53 mm, queue non comprise. Cette espèce a la face dorsale brunâtre et présente trois lignes longitudinales blanches au milieu de son dos et parfois une autre irrégulière sur ses flancs.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Liste de sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (21 janvier 2013)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (21 janvier 2013) :
 Heliobolus spekii scorteccii (Arillo, Balletto &amp; Spanò, 1965)
 Heliobolus spekii sextaeniata (Stejneger, 1894)
 Heliobolus spekii spekii (Günther, 1872)</t>
@@ -606,9 +624,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son nom d'espèce lui a été donné en l'honneur du capitaine Speke qui a collecté les deux premiers spécimens analysés[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom d'espèce lui a été donné en l'honneur du capitaine Speke qui a collecté les deux premiers spécimens analysés.
 </t>
         </is>
       </c>
@@ -637,7 +657,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Arillo, Balletto &amp; Spanò, 1965 : II e III spedizione Scortecci in Migiurtinia: il genere Eremias Wiegmann (Reptilia, Lacertidae). Bollettino dei Musei e degli Istituti Biologici della Universita di Genova, vol. 33, p. 85-109.
 Günther, 1872 : Description of three new species of Eremias. Annals and Magazine of Natural History, ser. 4, vol. 9, p. 381-382 (texte intégral).
